--- a/average_satisfaction_random_g3.xlsx
+++ b/average_satisfaction_random_g3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giorg\Downloads\multiagentsystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtzortzi\Downloads\MA_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD9FEF9-764A-4837-9F73-42684C0CB64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08816307-C44D-47A8-9CD0-84D8304BCCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{E6ADF727-D6CA-4A85-9B93-DC49462BADE1}"/>
+    <workbookView xWindow="3060" yWindow="1824" windowWidth="17280" windowHeight="8964" xr2:uid="{4A98B739-6FB6-4780-8B6B-E8D985F873C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +66,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2721B3AD-9DE2-4B19-8211-A1C63C6520E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47FF0B1-311B-4DF1-8238-483D6437ECDC}">
   <dimension ref="A1:CV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -388,304 +388,304 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.83033896268418816</v>
+        <v>0.76923210175876999</v>
       </c>
       <c r="B1">
-        <v>0.81126353843242915</v>
+        <v>0.72364866214913726</v>
       </c>
       <c r="C1">
-        <v>0.84857497813888649</v>
+        <v>0.72432488936539696</v>
       </c>
       <c r="D1">
-        <v>0.86408358464123058</v>
+        <v>0.85245914408339274</v>
       </c>
       <c r="E1">
-        <v>0.77931500976955059</v>
+        <v>0.78053591968555591</v>
       </c>
       <c r="F1">
-        <v>0.76838594835366003</v>
+        <v>0.87856411599929785</v>
       </c>
       <c r="G1">
-        <v>0.73703462735234415</v>
+        <v>0.74907847237890057</v>
       </c>
       <c r="H1">
-        <v>0.82444651229237276</v>
+        <v>0.7415195817220136</v>
       </c>
       <c r="I1">
-        <v>0.66878627380524902</v>
+        <v>0.7670271958392354</v>
       </c>
       <c r="J1">
-        <v>0.82632717052041404</v>
+        <v>0.81779169886002023</v>
       </c>
       <c r="K1">
-        <v>0.79841779396718215</v>
+        <v>0.73470520590161148</v>
       </c>
       <c r="L1">
-        <v>0.79493833632666777</v>
+        <v>0.84409779003899432</v>
       </c>
       <c r="M1">
-        <v>0.78556849889821634</v>
+        <v>0.84365626601854027</v>
       </c>
       <c r="N1">
-        <v>0.72953567379225281</v>
+        <v>0.77836686758383888</v>
       </c>
       <c r="O1">
-        <v>0.90942143464179648</v>
+        <v>0.75622483118155159</v>
       </c>
       <c r="P1">
-        <v>0.59298323233964423</v>
+        <v>0.85938021861406488</v>
       </c>
       <c r="Q1">
-        <v>0.78482614225902259</v>
+        <v>0.77776975270836557</v>
       </c>
       <c r="R1">
-        <v>0.8429542104753166</v>
+        <v>0.84196207385659572</v>
       </c>
       <c r="S1">
-        <v>0.90491523906048132</v>
+        <v>0.72787559958687098</v>
       </c>
       <c r="T1">
-        <v>0.76545725818976562</v>
+        <v>0.71047562260475294</v>
       </c>
       <c r="U1">
-        <v>0.75612948329482055</v>
+        <v>0.7271527931928663</v>
       </c>
       <c r="V1">
-        <v>0.75189049241561412</v>
+        <v>0.73756942949782234</v>
       </c>
       <c r="W1">
-        <v>0.85657777183821926</v>
+        <v>0.71661670909580222</v>
       </c>
       <c r="X1">
-        <v>0.84161090024895224</v>
+        <v>0.68569856442646726</v>
       </c>
       <c r="Y1">
-        <v>0.77677074763981724</v>
+        <v>0.78559782027195535</v>
       </c>
       <c r="Z1">
-        <v>0.60746120479576271</v>
+        <v>0.80731070412576611</v>
       </c>
       <c r="AA1">
-        <v>0.78733606749178442</v>
+        <v>0.76036095160308415</v>
       </c>
       <c r="AB1">
-        <v>0.63193013409143661</v>
+        <v>0.85459584056566162</v>
       </c>
       <c r="AC1">
-        <v>0.73542561863507383</v>
+        <v>0.72924635832385298</v>
       </c>
       <c r="AD1">
-        <v>0.64336512921611733</v>
+        <v>0.84492541836153257</v>
       </c>
       <c r="AE1">
-        <v>0.79178379710867497</v>
+        <v>0.73887973952318375</v>
       </c>
       <c r="AF1">
-        <v>0.79110703431863394</v>
+        <v>0.95034961529881623</v>
       </c>
       <c r="AG1">
-        <v>0.86268699067821886</v>
+        <v>0.82243268377957757</v>
       </c>
       <c r="AH1">
-        <v>0.79436077994611565</v>
+        <v>0.75016097632792922</v>
       </c>
       <c r="AI1">
-        <v>0.77104991161831449</v>
+        <v>0.88177139756157241</v>
       </c>
       <c r="AJ1">
-        <v>0.85580185827151822</v>
+        <v>0.93660370434121254</v>
       </c>
       <c r="AK1">
-        <v>0.82632115110980775</v>
+        <v>0.81414133878638428</v>
       </c>
       <c r="AL1">
-        <v>0.79300876643874718</v>
+        <v>0.81907765840229863</v>
       </c>
       <c r="AM1">
-        <v>0.85909260842100654</v>
+        <v>0.65909160884535856</v>
       </c>
       <c r="AN1">
-        <v>0.67001941738778603</v>
+        <v>0.70385180895555965</v>
       </c>
       <c r="AO1">
-        <v>0.96281843219442331</v>
+        <v>0.85278874451473086</v>
       </c>
       <c r="AP1">
-        <v>0.74289669256467872</v>
+        <v>0.77991882656247835</v>
       </c>
       <c r="AQ1">
-        <v>0.72537913328493842</v>
+        <v>0.79176214845723747</v>
       </c>
       <c r="AR1">
-        <v>0.79233253461172803</v>
+        <v>0.7874445316252211</v>
       </c>
       <c r="AS1">
-        <v>0.89094830317568019</v>
+        <v>0.74140703247209949</v>
       </c>
       <c r="AT1">
-        <v>0.76960900465891446</v>
+        <v>0.86576317910503908</v>
       </c>
       <c r="AU1">
-        <v>0.84311620238311757</v>
+        <v>0.78530601780042031</v>
       </c>
       <c r="AV1">
-        <v>0.72617423884160792</v>
+        <v>0.7726423283424374</v>
       </c>
       <c r="AW1">
-        <v>0.79610382783512867</v>
+        <v>0.76809355278312241</v>
       </c>
       <c r="AX1">
-        <v>0.83389116881537928</v>
+        <v>0.69092429720906789</v>
       </c>
       <c r="AY1">
-        <v>0.72167659536694972</v>
+        <v>0.84135252813712369</v>
       </c>
       <c r="AZ1">
-        <v>0.78206494703286267</v>
+        <v>0.7987041137861085</v>
       </c>
       <c r="BA1">
-        <v>0.788211657902536</v>
+        <v>0.73743608408050854</v>
       </c>
       <c r="BB1">
-        <v>0.7573741724862687</v>
+        <v>0.76335631788599145</v>
       </c>
       <c r="BC1">
-        <v>0.74906634271176242</v>
+        <v>0.7171495228353586</v>
       </c>
       <c r="BD1">
-        <v>0.86371177991378367</v>
+        <v>0.74984915575955924</v>
       </c>
       <c r="BE1">
-        <v>0.76509129519720642</v>
+        <v>0.78180717901067198</v>
       </c>
       <c r="BF1">
-        <v>0.78229294023498763</v>
+        <v>0.73148427690121154</v>
       </c>
       <c r="BG1">
-        <v>0.72857968712355947</v>
+        <v>0.68992018299287694</v>
       </c>
       <c r="BH1">
-        <v>0.86338106304350415</v>
+        <v>0.75951341320733701</v>
       </c>
       <c r="BI1">
-        <v>0.80272933673056857</v>
+        <v>0.82299541535958598</v>
       </c>
       <c r="BJ1">
-        <v>0.78424401498856033</v>
+        <v>0.77250258039945563</v>
       </c>
       <c r="BK1">
-        <v>0.77431785134264963</v>
+        <v>0.7570129888540581</v>
       </c>
       <c r="BL1">
-        <v>0.63163132113228904</v>
+        <v>0.83758852052706634</v>
       </c>
       <c r="BM1">
-        <v>0.7958304921025765</v>
+        <v>0.82235422945687575</v>
       </c>
       <c r="BN1">
-        <v>0.78957792269498439</v>
+        <v>0.73401999933277429</v>
       </c>
       <c r="BO1">
-        <v>0.77610207376786267</v>
+        <v>0.91684961781203422</v>
       </c>
       <c r="BP1">
-        <v>0.74583890447344003</v>
+        <v>0.76862076105262311</v>
       </c>
       <c r="BQ1">
-        <v>0.83898484357535053</v>
+        <v>0.8437311301783188</v>
       </c>
       <c r="BR1">
-        <v>0.78784858485186005</v>
+        <v>0.73761472407082274</v>
       </c>
       <c r="BS1">
-        <v>0.81895297788664045</v>
+        <v>0.77367919933739437</v>
       </c>
       <c r="BT1">
-        <v>0.81607362953000206</v>
+        <v>0.75671966489843101</v>
       </c>
       <c r="BU1">
-        <v>0.66792619964876665</v>
+        <v>0.77675845319898562</v>
       </c>
       <c r="BV1">
-        <v>0.63812705767862388</v>
+        <v>0.7040810763085138</v>
       </c>
       <c r="BW1">
-        <v>0.78907758303212139</v>
+        <v>0.73195468131791008</v>
       </c>
       <c r="BX1">
-        <v>0.86493723332127881</v>
+        <v>0.66338621500370454</v>
       </c>
       <c r="BY1">
-        <v>0.84355497064879259</v>
+        <v>0.69748861464201584</v>
       </c>
       <c r="BZ1">
-        <v>0.81048525573677055</v>
+        <v>0.68126987250810822</v>
       </c>
       <c r="CA1">
-        <v>0.706629610549114</v>
+        <v>0.73576945635166224</v>
       </c>
       <c r="CB1">
-        <v>0.867933930947133</v>
+        <v>0.77847015725059032</v>
       </c>
       <c r="CC1">
-        <v>0.9038453902308331</v>
+        <v>0.65260435199508704</v>
       </c>
       <c r="CD1">
-        <v>0.82874557305569174</v>
+        <v>0.86508684511822431</v>
       </c>
       <c r="CE1">
-        <v>0.78956761258914887</v>
+        <v>0.84359525996752927</v>
       </c>
       <c r="CF1">
-        <v>0.75932515968725434</v>
+        <v>0.76165381965911716</v>
       </c>
       <c r="CG1">
-        <v>0.70951646918422728</v>
+        <v>0.80870103482981237</v>
       </c>
       <c r="CH1">
-        <v>0.80663018038431678</v>
+        <v>0.78271517489617837</v>
       </c>
       <c r="CI1">
-        <v>0.66485963058494824</v>
+        <v>0.84939347937601006</v>
       </c>
       <c r="CJ1">
-        <v>0.78660793839830334</v>
+        <v>0.76583189596102363</v>
       </c>
       <c r="CK1">
-        <v>0.79846490321130414</v>
+        <v>0.68324363616886774</v>
       </c>
       <c r="CL1">
-        <v>0.7779701829795298</v>
+        <v>0.81624933699215463</v>
       </c>
       <c r="CM1">
-        <v>0.62523450618652565</v>
+        <v>0.75210877107207819</v>
       </c>
       <c r="CN1">
-        <v>0.71885689113192852</v>
+        <v>0.82472389384069966</v>
       </c>
       <c r="CO1">
-        <v>0.78582868386946692</v>
+        <v>0.64899789815789866</v>
       </c>
       <c r="CP1">
-        <v>0.72491619211398461</v>
+        <v>0.67789558788946103</v>
       </c>
       <c r="CQ1">
-        <v>0.86066335600672916</v>
+        <v>0.81595410705587956</v>
       </c>
       <c r="CR1">
-        <v>0.62208686774822108</v>
+        <v>0.81737018656624061</v>
       </c>
       <c r="CS1">
-        <v>0.71921385884933786</v>
+        <v>0.79704009531751907</v>
       </c>
       <c r="CT1">
-        <v>0.73279060116737804</v>
+        <v>0.74406042714178411</v>
       </c>
       <c r="CU1">
-        <v>0.71643838776228341</v>
+        <v>0.75200971211910206</v>
       </c>
       <c r="CV1">
-        <v>0.85706775030661508</v>
+        <v>0.69389483340285041</v>
       </c>
     </row>
   </sheetData>
